--- a/data/trans_orig/P16A13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Edad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2533,7 +2533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4512,7 +4512,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6491,7 +6491,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9722</v>
+        <v>8488</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004974308133268817</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01967835347881537</v>
+        <v>0.01717964899243506</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -765,19 +765,19 @@
         <v>8479</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3855</v>
+        <v>4533</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15315</v>
+        <v>16212</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01813720511690886</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008245573056959157</v>
+        <v>0.009696030524511847</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0327594152518356</v>
+        <v>0.03467888193112205</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -786,19 +786,19 @@
         <v>10937</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5672</v>
+        <v>5200</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19454</v>
+        <v>19348</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0113738628326069</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005898562817799139</v>
+        <v>0.005407492771573407</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02023158047752389</v>
+        <v>0.02012178757618075</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>491606</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>484342</v>
+        <v>485576</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>494064</v>
@@ -824,7 +824,7 @@
         <v>0.9950256918667312</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9803216465211846</v>
+        <v>0.9828203510075643</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,19 +836,19 @@
         <v>459010</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>452174</v>
+        <v>451277</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>463634</v>
+        <v>462956</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9818627948830911</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9672405847481644</v>
+        <v>0.9653211180688779</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9917544269430408</v>
+        <v>0.9903039694754882</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>977</v>
@@ -857,19 +857,19 @@
         <v>950616</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>942099</v>
+        <v>942205</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>955881</v>
+        <v>956353</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9886261371673931</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9797684195224764</v>
+        <v>0.9798782124238192</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9941014371822011</v>
+        <v>0.9945925072284266</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>12067</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6526</v>
+        <v>6540</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20570</v>
+        <v>21593</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01640625033164085</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008873526462914892</v>
+        <v>0.008891984160986561</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02796732018174487</v>
+        <v>0.02935849426331391</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -982,19 +982,19 @@
         <v>7153</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2945</v>
+        <v>3168</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14365</v>
+        <v>14201</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01143651988652369</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004708251316486416</v>
+        <v>0.005065343446848429</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02296578760022077</v>
+        <v>0.02270332642440552</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -1003,19 +1003,19 @@
         <v>19220</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11865</v>
+        <v>11870</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28606</v>
+        <v>29615</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01412221226526351</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008718101787219282</v>
+        <v>0.008721932512999303</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0210183137844129</v>
+        <v>0.02175989643880834</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>723422</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>714919</v>
+        <v>713896</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>728963</v>
+        <v>728949</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9835937496683591</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9720326798182551</v>
+        <v>0.9706415057366861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9911264735370852</v>
+        <v>0.9911080158390134</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>584</v>
@@ -1053,19 +1053,19 @@
         <v>618341</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>611129</v>
+        <v>611293</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>622549</v>
+        <v>622326</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9885634801134763</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9770342123997791</v>
+        <v>0.9772966735755945</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9952917486835137</v>
+        <v>0.9949346565531516</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1275</v>
@@ -1074,19 +1074,19 @@
         <v>1341762</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1332376</v>
+        <v>1331367</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1349117</v>
+        <v>1349112</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9858777877347364</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.978981686215587</v>
+        <v>0.9782401035611916</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9912818982127808</v>
+        <v>0.9912780674870006</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>15057</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8608</v>
+        <v>8799</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24380</v>
+        <v>26901</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02361334692287769</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01349976453285062</v>
+        <v>0.01379957390513582</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03823470293351541</v>
+        <v>0.04218770796026011</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1199,19 +1199,19 @@
         <v>12771</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6929</v>
+        <v>7062</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22094</v>
+        <v>21527</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01851563071604487</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01004528589730358</v>
+        <v>0.01023825046299916</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0320327158496861</v>
+        <v>0.03121052053703493</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1220,19 +1220,19 @@
         <v>27828</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19136</v>
+        <v>18285</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39435</v>
+        <v>40020</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02096445643240107</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01441588677794028</v>
+        <v>0.01377514743183047</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02970841720457819</v>
+        <v>0.03014906948112523</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>622592</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>613269</v>
+        <v>610748</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>629041</v>
+        <v>628850</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9763866530771224</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9617652970664846</v>
+        <v>0.9578122920397377</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9865002354671495</v>
+        <v>0.9862004260948638</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>645</v>
@@ -1270,19 +1270,19 @@
         <v>676973</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>667650</v>
+        <v>668217</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>682815</v>
+        <v>682682</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9814843692839551</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9679672841503136</v>
+        <v>0.968789479462965</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9899547141026964</v>
+        <v>0.9897617495370008</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1243</v>
@@ -1291,19 +1291,19 @@
         <v>1299566</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1287959</v>
+        <v>1287374</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1308258</v>
+        <v>1309109</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9790355435675989</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9702915827954217</v>
+        <v>0.9698509305188758</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9855841132220594</v>
+        <v>0.9862248525681697</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>13514</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7142</v>
+        <v>7451</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23301</v>
+        <v>25669</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02603050840464098</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01375778412563076</v>
+        <v>0.01435297527837023</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04488233454327081</v>
+        <v>0.04944500576208365</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -1416,19 +1416,19 @@
         <v>20904</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13632</v>
+        <v>13032</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31465</v>
+        <v>29647</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04054071664603232</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02643622129231368</v>
+        <v>0.02527261428831035</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06102102040117182</v>
+        <v>0.05749609534547873</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -1437,19 +1437,19 @@
         <v>34418</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22945</v>
+        <v>23743</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47085</v>
+        <v>47318</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03326103792896581</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02217389286366319</v>
+        <v>0.02294434255703216</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04550203123357754</v>
+        <v>0.0457270634545188</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>505633</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>495846</v>
+        <v>493478</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>512005</v>
+        <v>511696</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9739694915953591</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9551176654567294</v>
+        <v>0.9505549942379155</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9862422158743694</v>
+        <v>0.9856470247216298</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>480</v>
@@ -1487,19 +1487,19 @@
         <v>494738</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>484177</v>
+        <v>485995</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>502010</v>
+        <v>502610</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9594592833539677</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.938978979598828</v>
+        <v>0.9425039046545213</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9735637787076862</v>
+        <v>0.9747273857116896</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>952</v>
@@ -1508,19 +1508,19 @@
         <v>1000371</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>987704</v>
+        <v>987471</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1011844</v>
+        <v>1011046</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9667389620710342</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9544979687664221</v>
+        <v>0.9542729365454814</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9778261071363368</v>
+        <v>0.977055657442968</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>15035</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9171</v>
+        <v>9131</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23360</v>
+        <v>23183</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03887865857908872</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0237143048266804</v>
+        <v>0.02361095387466771</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06040579428413193</v>
+        <v>0.0599505383881859</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1633,19 +1633,19 @@
         <v>23317</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15390</v>
+        <v>15299</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33576</v>
+        <v>34117</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05771827563538291</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03809568291854021</v>
+        <v>0.03786970334163715</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08311218566403925</v>
+        <v>0.0844497905457724</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -1654,19 +1654,19 @@
         <v>38352</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27710</v>
+        <v>27893</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51199</v>
+        <v>52070</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04850428082054694</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03504564285643951</v>
+        <v>0.03527694483824882</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06475236794250712</v>
+        <v>0.06585382797731906</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>371675</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>363350</v>
+        <v>363527</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>377539</v>
+        <v>377579</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9611213414209113</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9395942057158682</v>
+        <v>0.9400494616118142</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9762856951733196</v>
+        <v>0.9763890461253326</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>373</v>
@@ -1704,19 +1704,19 @@
         <v>380669</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>370410</v>
+        <v>369869</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>388596</v>
+        <v>388687</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9422817243646171</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9168878143359607</v>
+        <v>0.9155502094542276</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9619043170814598</v>
+        <v>0.9621302966583629</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>749</v>
@@ -1725,19 +1725,19 @@
         <v>752344</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>739497</v>
+        <v>738626</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>762986</v>
+        <v>762803</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9514957191794531</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.935247632057493</v>
+        <v>0.9341461720226809</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9649543571435606</v>
+        <v>0.9647230551617511</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>12486</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7051</v>
+        <v>6995</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22170</v>
+        <v>21507</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04267444069495355</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02409935582160655</v>
+        <v>0.0239075617898705</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07577422910769692</v>
+        <v>0.07350876185012103</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -1850,19 +1850,19 @@
         <v>25619</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16916</v>
+        <v>17204</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35185</v>
+        <v>35855</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07470662997921947</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04932869098796972</v>
+        <v>0.05016697241610425</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1025988227586511</v>
+        <v>0.1045530727661595</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>40</v>
@@ -1871,19 +1871,19 @@
         <v>38105</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26152</v>
+        <v>27734</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>49929</v>
+        <v>50687</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05995946498497195</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04115138337578782</v>
+        <v>0.04363965960195006</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0785646283848402</v>
+        <v>0.07975652147584826</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>280097</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>270413</v>
+        <v>271076</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>285532</v>
+        <v>285588</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9573255593050465</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9242257708923031</v>
+        <v>0.926491238149879</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9759006441783935</v>
+        <v>0.9760924382101295</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>343</v>
@@ -1921,19 +1921,19 @@
         <v>317315</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>307749</v>
+        <v>307079</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>326018</v>
+        <v>325730</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9252933700207805</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8974011772413488</v>
+        <v>0.8954469272338408</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9506713090120301</v>
+        <v>0.949833027583896</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>634</v>
@@ -1942,19 +1942,19 @@
         <v>597412</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>585588</v>
+        <v>584830</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>609365</v>
+        <v>607783</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.940040535015028</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9214353716151598</v>
+        <v>0.9202434785241517</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9588486166242121</v>
+        <v>0.9563603403980497</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>15980</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9530</v>
+        <v>9845</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24280</v>
+        <v>23904</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07613672101171112</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04540584492344835</v>
+        <v>0.04690578151557263</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1156831695385165</v>
+        <v>0.1138935185089572</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -2067,19 +2067,19 @@
         <v>23227</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14174</v>
+        <v>14287</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34422</v>
+        <v>33898</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06956125385975552</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04244790935580407</v>
+        <v>0.04278729776038096</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1030887915774033</v>
+        <v>0.1015189364642327</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>37</v>
@@ -2088,19 +2088,19 @@
         <v>39207</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>27723</v>
+        <v>28357</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>53218</v>
+        <v>52245</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07209913848666102</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05098149694904108</v>
+        <v>0.05214630956902901</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09786497145091287</v>
+        <v>0.09607533408360897</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>193903</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>185603</v>
+        <v>185979</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>200353</v>
+        <v>200038</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9238632789882889</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8843168304614836</v>
+        <v>0.8861064814910431</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9545941550765518</v>
+        <v>0.9530942184844274</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>270</v>
@@ -2138,19 +2138,19 @@
         <v>310681</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>299486</v>
+        <v>300010</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>319734</v>
+        <v>319621</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9304387461402445</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8969112084225968</v>
+        <v>0.8984810635357673</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.957552090644196</v>
+        <v>0.9572127022396192</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>473</v>
@@ -2159,19 +2159,19 @@
         <v>504584</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>490573</v>
+        <v>491546</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>516068</v>
+        <v>515434</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9279008615133389</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9021350285490871</v>
+        <v>0.903924665916391</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9490185030509589</v>
+        <v>0.947853690430971</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>86595</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>70080</v>
+        <v>70724</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>109225</v>
+        <v>107543</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02643708143675029</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02139506969541165</v>
+        <v>0.02159167173352537</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0333456897099232</v>
+        <v>0.03283219483305003</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>122</v>
@@ -2284,19 +2284,19 @@
         <v>121472</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>101568</v>
+        <v>99977</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>143173</v>
+        <v>144278</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03594695301296968</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0300568579742511</v>
+        <v>0.02958611464338556</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04236896210187479</v>
+        <v>0.04269586779432826</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>207</v>
@@ -2305,19 +2305,19 @@
         <v>208067</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>181204</v>
+        <v>179011</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>234297</v>
+        <v>238969</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03126609310876499</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02722938413961876</v>
+        <v>0.02689977386107404</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03520760302642681</v>
+        <v>0.03590966422165227</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3188930</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3166300</v>
+        <v>3167982</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3205445</v>
+        <v>3204801</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9735629185632497</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9666543102900772</v>
+        <v>0.96716780516695</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9786049303045883</v>
+        <v>0.9784083282664747</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3175</v>
@@ -2355,19 +2355,19 @@
         <v>3257725</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3236024</v>
+        <v>3234919</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3277629</v>
+        <v>3279220</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9640530469870303</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9576310378981254</v>
+        <v>0.9573041322056717</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.969943142025749</v>
+        <v>0.9704138853566143</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6303</v>
@@ -2376,19 +2376,19 @@
         <v>6446655</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6420425</v>
+        <v>6415753</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6473518</v>
+        <v>6475711</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9687339068912351</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9647923969735738</v>
+        <v>0.9640903357783478</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9727706158603814</v>
+        <v>0.9731002261389261</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>6566</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2609</v>
+        <v>2746</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13964</v>
+        <v>15195</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0144906942007536</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005757229441347983</v>
+        <v>0.006059707511271255</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0308191743331462</v>
+        <v>0.03353522138343617</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2744,19 +2744,19 @@
         <v>3881</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9679</v>
+        <v>8862</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009039880240578549</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002292977205284272</v>
+        <v>0.00227112150180713</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02254399747557257</v>
+        <v>0.02063999839022506</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -2765,19 +2765,19 @@
         <v>10447</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4705</v>
+        <v>5075</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19393</v>
+        <v>19902</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0118386880863171</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005332122887649412</v>
+        <v>0.005751173262209293</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02197613023570246</v>
+        <v>0.02255273377903656</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>446539</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>439141</v>
+        <v>437910</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>450496</v>
+        <v>450359</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9855093057992464</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9691808256668538</v>
+        <v>0.966464778616564</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.994242770558652</v>
+        <v>0.9939402924887287</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>416</v>
@@ -2815,19 +2815,19 @@
         <v>425458</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>419660</v>
+        <v>420477</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>428355</v>
+        <v>428364</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9909601197594214</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9774560025244274</v>
+        <v>0.9793600016097748</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9977070227947157</v>
+        <v>0.9977288784981928</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>855</v>
@@ -2836,19 +2836,19 @@
         <v>871998</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>863052</v>
+        <v>862543</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>877740</v>
+        <v>877370</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9881613119136829</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9780238697642979</v>
+        <v>0.9774472662209635</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9946678771123507</v>
+        <v>0.9942488267377909</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>15157</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8601</v>
+        <v>8491</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26590</v>
+        <v>25692</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02208706107472693</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01253340798330796</v>
+        <v>0.0123729443530531</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03874752657707853</v>
+        <v>0.03743901956526673</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -2961,19 +2961,19 @@
         <v>12447</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7085</v>
+        <v>6683</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21874</v>
+        <v>22623</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02043089411106033</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01163000495009525</v>
+        <v>0.01097059879975653</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03590608145823792</v>
+        <v>0.03713514505488484</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -2982,19 +2982,19 @@
         <v>27604</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18298</v>
+        <v>16911</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41363</v>
+        <v>39852</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02130821314726935</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01412517307177555</v>
+        <v>0.01305401477176566</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03192941679262931</v>
+        <v>0.03076337531735956</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>671081</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>659648</v>
+        <v>660546</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>677637</v>
+        <v>677747</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9779129389252731</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9612524734229217</v>
+        <v>0.9625609804347333</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9874665920166921</v>
+        <v>0.987627055646947</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>559</v>
@@ -3032,19 +3032,19 @@
         <v>596767</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>587340</v>
+        <v>586591</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>602129</v>
+        <v>602531</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9795691058889396</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9640939185417621</v>
+        <v>0.962864854945115</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9883699950499046</v>
+        <v>0.9890294012002434</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1211</v>
@@ -3053,19 +3053,19 @@
         <v>1267847</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1254088</v>
+        <v>1255599</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1277153</v>
+        <v>1278540</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9786917868527306</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9680705832073708</v>
+        <v>0.9692366246826404</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9858748269282247</v>
+        <v>0.9869459852282341</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>17698</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10459</v>
+        <v>10405</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29492</v>
+        <v>29159</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0260242122112609</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01537956989734498</v>
+        <v>0.01529959727480824</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04336727970259747</v>
+        <v>0.04287707599285708</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -3178,19 +3178,19 @@
         <v>22147</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14429</v>
+        <v>12812</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34126</v>
+        <v>32870</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03137298672721155</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02043970733582708</v>
+        <v>0.01814833051871143</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04834119214612686</v>
+        <v>0.04656306300465179</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -3199,19 +3199,19 @@
         <v>39845</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28808</v>
+        <v>29214</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53841</v>
+        <v>54070</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02874854022696788</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02078485406037457</v>
+        <v>0.02107776468146321</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03884633775035217</v>
+        <v>0.03901204599942669</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>662356</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>650562</v>
+        <v>650895</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>669595</v>
+        <v>669649</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9739757877887391</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9566327202974027</v>
+        <v>0.957122924007143</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9846204301026552</v>
+        <v>0.9847004027251918</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>642</v>
@@ -3249,19 +3249,19 @@
         <v>683788</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>671809</v>
+        <v>673065</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>691506</v>
+        <v>693123</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9686270132727884</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9516588078538731</v>
+        <v>0.9534369369953481</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9795602926641729</v>
+        <v>0.9818516694812885</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1275</v>
@@ -3270,19 +3270,19 @@
         <v>1346144</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1332148</v>
+        <v>1331919</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1357181</v>
+        <v>1356775</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9712514597730321</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9611536622496479</v>
+        <v>0.9609879540005735</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9792151459396254</v>
+        <v>0.9789222353185367</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>31739</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21271</v>
+        <v>20482</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45357</v>
+        <v>46668</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05164012023827681</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03460871872152313</v>
+        <v>0.03332541520001629</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07379655982396713</v>
+        <v>0.07592963516675427</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -3395,19 +3395,19 @@
         <v>37718</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26009</v>
+        <v>25329</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51741</v>
+        <v>53249</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06142320293707376</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04235513573993206</v>
+        <v>0.04124797321791353</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0842585170760845</v>
+        <v>0.08671472338804383</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -3416,19 +3416,19 @@
         <v>69457</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53813</v>
+        <v>53681</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87810</v>
+        <v>89636</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05652949537396632</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04379698762628429</v>
+        <v>0.04368935420518724</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07146601644831174</v>
+        <v>0.07295256535214122</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>582878</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>569260</v>
+        <v>567949</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>593346</v>
+        <v>594135</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9483598797617232</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9262034401760331</v>
+        <v>0.9240703648332457</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.965391281278477</v>
+        <v>0.9666745847999837</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>505</v>
@@ -3466,19 +3466,19 @@
         <v>576354</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>562331</v>
+        <v>560823</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>588063</v>
+        <v>588743</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9385767970629263</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9157414829239153</v>
+        <v>0.9132852766119564</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9576448642600677</v>
+        <v>0.9587520267820865</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1026</v>
@@ -3487,19 +3487,19 @@
         <v>1159232</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1140879</v>
+        <v>1139053</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1174876</v>
+        <v>1175008</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9434705046260337</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9285339835516889</v>
+        <v>0.9270474346478588</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9562030123737165</v>
+        <v>0.9563106457948127</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>14673</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8356</v>
+        <v>8474</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24600</v>
+        <v>24423</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03425499495368939</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01950738240806646</v>
+        <v>0.01978272303915865</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05742934199886321</v>
+        <v>0.05701816563277269</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -3612,19 +3612,19 @@
         <v>33268</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23069</v>
+        <v>23757</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46692</v>
+        <v>45592</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07429185648555164</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05151626844943185</v>
+        <v>0.05305191063496904</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1042689168995521</v>
+        <v>0.1018143193866011</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>44</v>
@@ -3633,19 +3633,19 @@
         <v>47941</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35808</v>
+        <v>35995</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>64358</v>
+        <v>63189</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0547179708852354</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04087044267140703</v>
+        <v>0.04108351216209026</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07345590503008882</v>
+        <v>0.07212132103437366</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>413671</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>403744</v>
+        <v>403921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>419988</v>
+        <v>419870</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9657450050463107</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9425706580011365</v>
+        <v>0.9429818343672273</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9804926175919335</v>
+        <v>0.9802172769608414</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>376</v>
@@ -3683,19 +3683,19 @@
         <v>414532</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>401108</v>
+        <v>402208</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>424731</v>
+        <v>424043</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9257081435144483</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8957310831004478</v>
+        <v>0.8981856806133989</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9484837315505681</v>
+        <v>0.9469480893650309</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>754</v>
@@ -3704,19 +3704,19 @@
         <v>828203</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>811786</v>
+        <v>812955</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>840336</v>
+        <v>840149</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9452820291147646</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9265440949699112</v>
+        <v>0.9278786789656264</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9591295573285931</v>
+        <v>0.9589164878379099</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>22402</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13377</v>
+        <v>13741</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34738</v>
+        <v>35807</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07358623119924369</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04394241314210864</v>
+        <v>0.04513699219199614</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.114107075573037</v>
+        <v>0.1176181268157705</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>39</v>
@@ -3829,19 +3829,19 @@
         <v>38965</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28558</v>
+        <v>28466</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>52877</v>
+        <v>50862</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1100731062228203</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08067312210975351</v>
+        <v>0.08041377628765017</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.149371087925043</v>
+        <v>0.1436786795064163</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>57</v>
@@ -3850,19 +3850,19 @@
         <v>61367</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>47554</v>
+        <v>46403</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>78687</v>
+        <v>78031</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09320297657502977</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07222386249581908</v>
+        <v>0.07047554843833861</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1195076638683836</v>
+        <v>0.1185106165648017</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>282030</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>269694</v>
+        <v>268625</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>291055</v>
+        <v>290691</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9264137688007563</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8858929244269644</v>
+        <v>0.8823818731842304</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9560575868578917</v>
+        <v>0.9548630078080041</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>305</v>
@@ -3900,19 +3900,19 @@
         <v>315031</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>301119</v>
+        <v>303134</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>325438</v>
+        <v>325530</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8899268937771797</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8506289120749572</v>
+        <v>0.8563213204935836</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9193268778902466</v>
+        <v>0.9195862237123498</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>566</v>
@@ -3921,19 +3921,19 @@
         <v>597061</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>579741</v>
+        <v>580397</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>610874</v>
+        <v>612025</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9067970234249703</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8804923361316165</v>
+        <v>0.8814893834351989</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.927776137504181</v>
+        <v>0.9295244515616616</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>32029</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21380</v>
+        <v>21327</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44461</v>
+        <v>43461</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1286120988699712</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08585002678892117</v>
+        <v>0.08563847939105311</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1785328401737351</v>
+        <v>0.1745182541494464</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -4046,19 +4046,19 @@
         <v>41668</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29583</v>
+        <v>29971</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53557</v>
+        <v>54899</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1077387335278473</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07649075872894411</v>
+        <v>0.07749417597258296</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1384773853485077</v>
+        <v>0.1419493484845837</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>65</v>
@@ -4067,19 +4067,19 @@
         <v>73697</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>57722</v>
+        <v>58236</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>91738</v>
+        <v>91966</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1159147464957994</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09078870416393722</v>
+        <v>0.09159716675637582</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1442904045424818</v>
+        <v>0.1446484009911652</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>217007</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>204575</v>
+        <v>205575</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>227656</v>
+        <v>227709</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8713879011300288</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8214671598262649</v>
+        <v>0.8254817458505536</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9141499732110788</v>
+        <v>0.9143615206089468</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>311</v>
@@ -4117,19 +4117,19 @@
         <v>345085</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>333196</v>
+        <v>331854</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>357170</v>
+        <v>356782</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8922612664721526</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8615226146514918</v>
+        <v>0.8580506515154162</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9235092412710557</v>
+        <v>0.922505824027417</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>504</v>
@@ -4138,19 +4138,19 @@
         <v>562092</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>544051</v>
+        <v>543823</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>578067</v>
+        <v>577553</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8840852535042006</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8557095954575179</v>
+        <v>0.8553515990088348</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9092112958360627</v>
+        <v>0.9084028332436244</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>140263</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>117808</v>
+        <v>116660</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>168504</v>
+        <v>168738</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0410628357868955</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0344888259280832</v>
+        <v>0.03415280071712933</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04933050139301037</v>
+        <v>0.04939892013606369</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>174</v>
@@ -4263,19 +4263,19 @@
         <v>190095</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>162488</v>
+        <v>166615</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>221623</v>
+        <v>224516</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05359156431791369</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04580846032075054</v>
+        <v>0.04697211446203831</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06247988093876546</v>
+        <v>0.06329534394806151</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>297</v>
@@ -4284,19 +4284,19 @@
         <v>330359</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>294701</v>
+        <v>293872</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>367177</v>
+        <v>368372</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04744531372876407</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04232422446535741</v>
+        <v>0.04220513176260249</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05273303213355225</v>
+        <v>0.0529046607918035</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3275562</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3247321</v>
+        <v>3247087</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3298017</v>
+        <v>3299165</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9589371642131045</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9506694986069897</v>
+        <v>0.9506010798639364</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9655111740719172</v>
+        <v>0.9658471992828709</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3114</v>
@@ -4334,19 +4334,19 @@
         <v>3357015</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3325487</v>
+        <v>3322594</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3384622</v>
+        <v>3380495</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9464084356820863</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9375201190612346</v>
+        <v>0.9367046560519385</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9541915396792495</v>
+        <v>0.9530278855379617</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6191</v>
@@ -4355,19 +4355,19 @@
         <v>6632575</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6595757</v>
+        <v>6594562</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6668233</v>
+        <v>6669062</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.952554686271236</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9472669678664478</v>
+        <v>0.9470953392081962</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9576757755346426</v>
+        <v>0.9577948682373975</v>
       </c>
     </row>
     <row r="27">
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11109</v>
+        <v>11505</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007012058218012599</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02648495246106723</v>
+        <v>0.02742888773490032</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4723,19 +4723,19 @@
         <v>4697</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12398</v>
+        <v>11345</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01186857763023513</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00254682992442095</v>
+        <v>0.002538527567296588</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03132835540229243</v>
+        <v>0.02866750476461327</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -4744,19 +4744,19 @@
         <v>7638</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2852</v>
+        <v>2842</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16353</v>
+        <v>16432</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009369699794740838</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003498919052707974</v>
+        <v>0.003486190355501849</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02006023063894414</v>
+        <v>0.02015629786712956</v>
       </c>
     </row>
     <row r="5">
@@ -4773,7 +4773,7 @@
         <v>416522</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>408354</v>
+        <v>407958</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -4782,7 +4782,7 @@
         <v>0.9929879417819873</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.973515047538934</v>
+        <v>0.9725711122650998</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4794,19 +4794,19 @@
         <v>391058</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>383357</v>
+        <v>384410</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>394747</v>
+        <v>394750</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9881314223697648</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9686716445977076</v>
+        <v>0.9713324952353867</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.997453170075579</v>
+        <v>0.9974614724327034</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>791</v>
@@ -4815,19 +4815,19 @@
         <v>807580</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>798865</v>
+        <v>798786</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>812366</v>
+        <v>812376</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9906303002052592</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9799397693610559</v>
+        <v>0.9798437021328692</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9965010809472921</v>
+        <v>0.9965138096444982</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>10023</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4400</v>
+        <v>4921</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18279</v>
+        <v>18694</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01697306995162617</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007451227308672211</v>
+        <v>0.00833381863573263</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03095484148826924</v>
+        <v>0.03165855557907258</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -4940,19 +4940,19 @@
         <v>9138</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4604</v>
+        <v>4457</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16450</v>
+        <v>17225</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01621503948421491</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008169331535231425</v>
+        <v>0.007909309259718132</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02919105669628715</v>
+        <v>0.03056563405174055</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -4961,19 +4961,19 @@
         <v>19160</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11050</v>
+        <v>12019</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28521</v>
+        <v>31456</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01660290661061772</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009575317079655261</v>
+        <v>0.0104146492365001</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02471429263581363</v>
+        <v>0.02725740763380649</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>580473</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>572217</v>
+        <v>571802</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>586096</v>
+        <v>585575</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9830269300483738</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9690451585117315</v>
+        <v>0.9683414444209274</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9925487726913278</v>
+        <v>0.9916661813642674</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>570</v>
@@ -5011,19 +5011,19 @@
         <v>554406</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>547094</v>
+        <v>546319</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>558940</v>
+        <v>559087</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9837849605157851</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9708089433037129</v>
+        <v>0.9694343659482595</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9918306684647686</v>
+        <v>0.9920906907402819</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1128</v>
@@ -5032,19 +5032,19 @@
         <v>1134880</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1125519</v>
+        <v>1122584</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1142990</v>
+        <v>1142021</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9833970933893823</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9752857073641862</v>
+        <v>0.9727425923661935</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9904246829203446</v>
+        <v>0.9895853507635</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>12239</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6056</v>
+        <v>6484</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21665</v>
+        <v>22314</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01829230831698253</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009051611178816716</v>
+        <v>0.009690513204390242</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03237926586989615</v>
+        <v>0.03334982802824454</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -5157,19 +5157,19 @@
         <v>10836</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5499</v>
+        <v>5443</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20037</v>
+        <v>19458</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01638341764928436</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008314694010350034</v>
+        <v>0.008229969731444393</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03029561345208872</v>
+        <v>0.02941941845069374</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -5178,19 +5178,19 @@
         <v>23075</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15026</v>
+        <v>14436</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36629</v>
+        <v>35316</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01734339418197364</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01129381849772632</v>
+        <v>0.01085024969835686</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02753044795610035</v>
+        <v>0.02654359652642842</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>656858</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>647432</v>
+        <v>646783</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>663041</v>
+        <v>662613</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9817076916830174</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9676207341301039</v>
+        <v>0.9666501719717555</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9909483888211833</v>
+        <v>0.9903094867956099</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>655</v>
@@ -5228,19 +5228,19 @@
         <v>650550</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>641349</v>
+        <v>641928</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>655887</v>
+        <v>655943</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9836165823507156</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9697043865479112</v>
+        <v>0.970580581549307</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.99168530598965</v>
+        <v>0.9917700302685556</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1282</v>
@@ -5249,19 +5249,19 @@
         <v>1307408</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1293854</v>
+        <v>1295167</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1315457</v>
+        <v>1316047</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9826566058180264</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9724695520438996</v>
+        <v>0.9734564034735712</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9887061815022736</v>
+        <v>0.989149750301643</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>14162</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7447</v>
+        <v>7134</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24355</v>
+        <v>25175</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02192093190232898</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01152734768869801</v>
+        <v>0.01104207198061573</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03769809327456913</v>
+        <v>0.03896732354673937</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -5374,19 +5374,19 @@
         <v>11824</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6091</v>
+        <v>6065</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19796</v>
+        <v>22068</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01821622758913279</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009383835900182316</v>
+        <v>0.009344753145475226</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03049907573632518</v>
+        <v>0.03399978110410885</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -5395,19 +5395,19 @@
         <v>25986</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16577</v>
+        <v>17209</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36961</v>
+        <v>39716</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02006424803383891</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01279992084435129</v>
+        <v>0.01328716816456446</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02853838819942281</v>
+        <v>0.03066555453718647</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>631886</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>621693</v>
+        <v>620873</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>638601</v>
+        <v>638914</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.978079068097671</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9623019067254307</v>
+        <v>0.9610326764532605</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9884726523113019</v>
+        <v>0.9889579280193841</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>591</v>
@@ -5445,19 +5445,19 @@
         <v>637253</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>629281</v>
+        <v>627009</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>642986</v>
+        <v>643012</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9817837724108672</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9695009242636748</v>
+        <v>0.9660002188958912</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9906161640998178</v>
+        <v>0.9906552468545248</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1161</v>
@@ -5466,19 +5466,19 @@
         <v>1269139</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1258164</v>
+        <v>1255409</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1278548</v>
+        <v>1277916</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9799357519661611</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.971461611800577</v>
+        <v>0.9693344454628131</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9872000791556481</v>
+        <v>0.9867128318354355</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>25065</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15954</v>
+        <v>14925</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37333</v>
+        <v>37076</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05244541704950997</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03338213484948711</v>
+        <v>0.03122869726088414</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07811641512331195</v>
+        <v>0.07757912218191899</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -5591,19 +5591,19 @@
         <v>39482</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28256</v>
+        <v>28107</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52554</v>
+        <v>53723</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07946426324197244</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05687003344150036</v>
+        <v>0.05656992103324183</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1057745223859348</v>
+        <v>0.1081283399634161</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -5612,19 +5612,19 @@
         <v>64546</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>49396</v>
+        <v>48801</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>80888</v>
+        <v>82764</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06621720738637718</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0506748170269098</v>
+        <v>0.05006468284413876</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08298140862024525</v>
+        <v>0.08490676634306667</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>452853</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>440585</v>
+        <v>440842</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>461964</v>
+        <v>462993</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.94755458295049</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9218835848766881</v>
+        <v>0.922420877818081</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.966617865150513</v>
+        <v>0.9687713027391158</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>398</v>
@@ -5662,19 +5662,19 @@
         <v>457367</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>444295</v>
+        <v>443126</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>468593</v>
+        <v>468742</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9205357367580276</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.894225477614065</v>
+        <v>0.8918716600365839</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9431299665584996</v>
+        <v>0.9434300789667581</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>801</v>
@@ -5683,19 +5683,19 @@
         <v>910221</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>893879</v>
+        <v>892003</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>925371</v>
+        <v>925966</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9337827926136228</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9170185913797547</v>
+        <v>0.9150932336569334</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9493251829730902</v>
+        <v>0.9499353171558612</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>17101</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10063</v>
+        <v>9865</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26176</v>
+        <v>25466</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05114959369230677</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03009921987931968</v>
+        <v>0.02950558306158871</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07829405480330784</v>
+        <v>0.07616952190782475</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -5808,19 +5808,19 @@
         <v>24059</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15995</v>
+        <v>15381</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35145</v>
+        <v>34808</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06368861053913831</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04234206838224595</v>
+        <v>0.04071721279493051</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09303349638407619</v>
+        <v>0.09214145838929833</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>40</v>
@@ -5829,19 +5829,19 @@
         <v>41160</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29321</v>
+        <v>29586</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>54647</v>
+        <v>55656</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05780149274995593</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0411760533150449</v>
+        <v>0.04154856586958709</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0767413490780756</v>
+        <v>0.07815825928084835</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>317229</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>308154</v>
+        <v>308864</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>324267</v>
+        <v>324465</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9488504063076932</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9217059451966919</v>
+        <v>0.9238304780921749</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9699007801206804</v>
+        <v>0.9704944169384112</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>331</v>
@@ -5879,19 +5879,19 @@
         <v>353703</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>342617</v>
+        <v>342954</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>361767</v>
+        <v>362381</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9363113894608617</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9069665036159241</v>
+        <v>0.9078585416107018</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.957657931617754</v>
+        <v>0.9592827872050695</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>639</v>
@@ -5900,19 +5900,19 @@
         <v>670932</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>657445</v>
+        <v>656436</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>682771</v>
+        <v>682506</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9421985072500441</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9232586509219237</v>
+        <v>0.9218417407191516</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9588239466849551</v>
+        <v>0.9584514341304129</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>18239</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11016</v>
+        <v>11874</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26105</v>
+        <v>27027</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.070969341599154</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04286431397825449</v>
+        <v>0.04620324655612098</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1015784057824504</v>
+        <v>0.1051626593619895</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -6025,19 +6025,19 @@
         <v>43702</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>32091</v>
+        <v>31486</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>60466</v>
+        <v>60302</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1092089876869305</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08019270637552266</v>
+        <v>0.07868186822335232</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1511008349464125</v>
+        <v>0.1506912142719576</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>54</v>
@@ -6046,19 +6046,19 @@
         <v>61941</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47104</v>
+        <v>45519</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>79579</v>
+        <v>78459</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09425462662105263</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07167742544146768</v>
+        <v>0.06926557415982827</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1210939037401352</v>
+        <v>0.1193898195927076</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>238759</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>230893</v>
+        <v>229971</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>245982</v>
+        <v>245124</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.929030658400846</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8984215942175496</v>
+        <v>0.8948373406380106</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9571356860217456</v>
+        <v>0.953796753443879</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>268</v>
@@ -6096,19 +6096,19 @@
         <v>356467</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>339703</v>
+        <v>339867</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>368078</v>
+        <v>368683</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8907910123130695</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8488991650535874</v>
+        <v>0.8493087857280422</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9198072936244772</v>
+        <v>0.9213181317766476</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>549</v>
@@ -6117,19 +6117,19 @@
         <v>595226</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>577588</v>
+        <v>578708</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>610063</v>
+        <v>611648</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9057453733789473</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8789060962598648</v>
+        <v>0.8806101804072924</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9283225745585324</v>
+        <v>0.9307344258401717</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>99770</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>81341</v>
+        <v>82287</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>122096</v>
+        <v>121686</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02939283219585396</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0239636136741377</v>
+        <v>0.02424248513943077</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03597046205924723</v>
+        <v>0.03584970607346078</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>125</v>
@@ -6242,19 +6242,19 @@
         <v>143737</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>116707</v>
+        <v>120638</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>167002</v>
+        <v>170082</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04055174480053273</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03292580923295755</v>
+        <v>0.03403479737855798</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04711529565979443</v>
+        <v>0.04798415050855793</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>218</v>
@@ -6263,19 +6263,19 @@
         <v>243507</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>211968</v>
+        <v>213360</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>275584</v>
+        <v>279572</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03509305529201308</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03054788591089036</v>
+        <v>0.03074848681500247</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03971582929541085</v>
+        <v>0.04029057894786873</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3294580</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3272254</v>
+        <v>3272664</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3313009</v>
+        <v>3312063</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.970607167804146</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.964029537940753</v>
+        <v>0.9641502939265393</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9760363863258623</v>
+        <v>0.9757575148605693</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3213</v>
@@ -6313,19 +6313,19 @@
         <v>3400805</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3377540</v>
+        <v>3374460</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3427835</v>
+        <v>3423904</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9594482551994673</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9528847043402056</v>
+        <v>0.952015849491442</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9670741907670424</v>
+        <v>0.9659652026214419</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6351</v>
@@ -6334,19 +6334,19 @@
         <v>6695385</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6663308</v>
+        <v>6659320</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6726924</v>
+        <v>6725532</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9649069447079869</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.960284170704589</v>
+        <v>0.9597094210521311</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9694521140891096</v>
+        <v>0.9692515131849975</v>
       </c>
     </row>
     <row r="27">
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18134</v>
+        <v>14530</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01136173470910324</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04446743992650351</v>
+        <v>0.03562965331683889</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11481</v>
+        <v>9328</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005157545595695543</v>
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03167148160245586</v>
+        <v>0.02573268913674719</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -6723,19 +6723,19 @@
         <v>6503</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1658</v>
+        <v>1674</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19178</v>
+        <v>20351</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.008441991570072608</v>
+        <v>0.008441991570072607</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002152022261513938</v>
+        <v>0.00217379696284422</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02489644340787747</v>
+        <v>0.02641875972644291</v>
       </c>
     </row>
     <row r="5">
@@ -6752,7 +6752,7 @@
         <v>403160</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>389659</v>
+        <v>393263</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>407793</v>
@@ -6761,7 +6761,7 @@
         <v>0.9886382652908968</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9555325600734969</v>
+        <v>0.9643703466831611</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6773,7 +6773,7 @@
         <v>360642</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>351031</v>
+        <v>353184</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
@@ -6782,7 +6782,7 @@
         <v>0.9948424544043044</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9683285183975442</v>
+        <v>0.9742673108632529</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6794,19 +6794,19 @@
         <v>763802</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>751127</v>
+        <v>749954</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>768647</v>
+        <v>768631</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9915580084299276</v>
+        <v>0.9915580084299274</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9751035565921224</v>
+        <v>0.9735812402735566</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9978479777384861</v>
+        <v>0.9978262030371559</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>7057</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2638</v>
+        <v>2485</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16418</v>
+        <v>15971</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01479816263375491</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005531977437581043</v>
+        <v>0.005211174152311025</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03442706583392947</v>
+        <v>0.03348898748923967</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -6919,19 +6919,19 @@
         <v>7641</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3123</v>
+        <v>3206</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15951</v>
+        <v>15397</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.01524993490704048</v>
+        <v>0.01524993490704047</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006233139121405545</v>
+        <v>0.006398115370976454</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03183243561104021</v>
+        <v>0.03072717451193577</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -6940,19 +6940,19 @@
         <v>14699</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8203</v>
+        <v>8394</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26091</v>
+        <v>26033</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01502963667698505</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008387573012792452</v>
+        <v>0.00858308877934626</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02667869440466164</v>
+        <v>0.02661939746332807</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>469833</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>460472</v>
+        <v>460919</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>474252</v>
+        <v>474405</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9852018373662451</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9655729341660702</v>
+        <v>0.9665110125107605</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.994468022562419</v>
+        <v>0.9947888258476889</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>453</v>
@@ -6990,19 +6990,19 @@
         <v>493442</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>485132</v>
+        <v>485686</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>497960</v>
+        <v>497877</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9847500650929595</v>
+        <v>0.9847500650929594</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9681675643889597</v>
+        <v>0.9692728254880641</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9937668608785943</v>
+        <v>0.9936018846290235</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>750</v>
@@ -7011,19 +7011,19 @@
         <v>963274</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>951882</v>
+        <v>951940</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>969770</v>
+        <v>969579</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9849703633230148</v>
+        <v>0.984970363323015</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9733213055953385</v>
+        <v>0.9733806025366722</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9916124269872075</v>
+        <v>0.9914169112206538</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>9945</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5022</v>
+        <v>4579</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17694</v>
+        <v>17835</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01601881825398562</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00808901529456762</v>
+        <v>0.007375541564670779</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02849999525738165</v>
+        <v>0.0287267654313571</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -7136,19 +7136,19 @@
         <v>18478</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12479</v>
+        <v>12549</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26362</v>
+        <v>26647</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02970026906308545</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02005830316951877</v>
+        <v>0.02017078782484961</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04237299885316259</v>
+        <v>0.04283052604522445</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -7157,19 +7157,19 @@
         <v>28423</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19593</v>
+        <v>20128</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39238</v>
+        <v>38739</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02286671158075852</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01576298824558678</v>
+        <v>0.0161930428693074</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03156811828062032</v>
+        <v>0.03116593361730354</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>610892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>603143</v>
+        <v>603002</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>615815</v>
+        <v>616258</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9839811817460145</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9715000047426182</v>
+        <v>0.9712732345686428</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9919109847054323</v>
+        <v>0.9926244584353293</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>819</v>
@@ -7207,19 +7207,19 @@
         <v>603661</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>595777</v>
+        <v>595492</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>609660</v>
+        <v>609590</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9702997309369145</v>
+        <v>0.9702997309369146</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9576270011468377</v>
+        <v>0.9571694739547753</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9799416968304815</v>
+        <v>0.9798292121751501</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1356</v>
@@ -7228,19 +7228,19 @@
         <v>1214553</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1203738</v>
+        <v>1204237</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1223383</v>
+        <v>1222848</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9771332884192416</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9684318817193808</v>
+        <v>0.9688340663826968</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9842370117544136</v>
+        <v>0.9838069571306924</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>43423</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31325</v>
+        <v>32448</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57054</v>
+        <v>58637</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06197818511009636</v>
+        <v>0.06197818511009635</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04471047915713429</v>
+        <v>0.04631301451832619</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08143401441970143</v>
+        <v>0.08369282001900984</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -7353,19 +7353,19 @@
         <v>35138</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26647</v>
+        <v>26701</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44802</v>
+        <v>45183</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04768435970841714</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03616194727634951</v>
+        <v>0.03623547749189942</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06079948506210485</v>
+        <v>0.06131585561963757</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -7374,19 +7374,19 @@
         <v>78561</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62715</v>
+        <v>62842</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95937</v>
+        <v>95576</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05465095082232455</v>
+        <v>0.05465095082232454</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04362777551736596</v>
+        <v>0.04371623940412184</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06673847132163364</v>
+        <v>0.06648720405801235</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>657194</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>643563</v>
+        <v>641980</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>669292</v>
+        <v>668169</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9380218148899037</v>
+        <v>0.9380218148899035</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9185659855802996</v>
+        <v>0.9163071799809899</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9552895208428658</v>
+        <v>0.953686985481674</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1084</v>
@@ -7424,19 +7424,19 @@
         <v>701748</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>692084</v>
+        <v>691703</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>710239</v>
+        <v>710185</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9523156402915828</v>
+        <v>0.952315640291583</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9392005149378954</v>
+        <v>0.9386841443803623</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9638380527236508</v>
+        <v>0.9637645225081004</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1707</v>
@@ -7445,19 +7445,19 @@
         <v>1358943</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1341567</v>
+        <v>1341928</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1374789</v>
+        <v>1374662</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9453490491776754</v>
+        <v>0.9453490491776755</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9332615286783665</v>
+        <v>0.9335127959419878</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9563722244826334</v>
+        <v>0.9562837605958784</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>47850</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36195</v>
+        <v>36949</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60367</v>
+        <v>60546</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07865438915288374</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05949607855048336</v>
+        <v>0.06073607658529784</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09922918549078887</v>
+        <v>0.09952271049144146</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>110</v>
@@ -7570,19 +7570,19 @@
         <v>61691</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>50989</v>
+        <v>51228</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>73451</v>
+        <v>74631</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1015582811499091</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08393932929968007</v>
+        <v>0.084333640619568</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1209165910687006</v>
+        <v>0.1228596033969509</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>169</v>
@@ -7591,19 +7591,19 @@
         <v>109541</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>93918</v>
+        <v>93569</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>128336</v>
+        <v>128019</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09009775263212741</v>
+        <v>0.09009775263212742</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07724761300628402</v>
+        <v>0.076960792817867</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1055564555805421</v>
+        <v>0.1052953944578235</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>560509</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>547992</v>
+        <v>547813</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>572164</v>
+        <v>571410</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9213456108471165</v>
+        <v>0.9213456108471163</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9007708145092115</v>
+        <v>0.9004772895085583</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9405039214495167</v>
+        <v>0.9392639234147021</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>890</v>
@@ -7641,19 +7641,19 @@
         <v>545757</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>533997</v>
+        <v>532817</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>556459</v>
+        <v>556220</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8984417188500908</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8790834089312994</v>
+        <v>0.8771403966030491</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.91606067070032</v>
+        <v>0.9156663593804321</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1493</v>
@@ -7662,19 +7662,19 @@
         <v>1106266</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1087471</v>
+        <v>1087788</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1121889</v>
+        <v>1122238</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9099022473678726</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8944435444194579</v>
+        <v>0.8947046055421766</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9227523869937161</v>
+        <v>0.9230392071821333</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>47186</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38102</v>
+        <v>37581</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58851</v>
+        <v>58153</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1159143319507906</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0935983022086103</v>
+        <v>0.09231911093895186</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1445682902886474</v>
+        <v>0.1428542093251345</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>133</v>
@@ -7787,19 +7787,19 @@
         <v>66099</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>56256</v>
+        <v>56464</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77942</v>
+        <v>77654</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1505113962883836</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1280968415781953</v>
+        <v>0.1285703546378617</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1774761880878122</v>
+        <v>0.1768217411566273</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>209</v>
@@ -7808,19 +7808,19 @@
         <v>113286</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>99856</v>
+        <v>98653</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>128018</v>
+        <v>129103</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1338687593155227</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1179986944372172</v>
+        <v>0.116577477076145</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1512771678369678</v>
+        <v>0.1525601299824728</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>359894</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>348229</v>
+        <v>348927</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>368978</v>
+        <v>369499</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8840856680492093</v>
+        <v>0.8840856680492094</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8554317097113523</v>
+        <v>0.8571457906748653</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9064016977913898</v>
+        <v>0.907680889061048</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>694</v>
@@ -7858,19 +7858,19 @@
         <v>373067</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>361224</v>
+        <v>361512</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>382910</v>
+        <v>382702</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8494886037116165</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8225238119121877</v>
+        <v>0.8231782588433727</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8719031584218048</v>
+        <v>0.8714296453621384</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1188</v>
@@ -7879,19 +7879,19 @@
         <v>732960</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>718228</v>
+        <v>717143</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>746390</v>
+        <v>747593</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8661312406844771</v>
+        <v>0.8661312406844774</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8487228321630322</v>
+        <v>0.8474398700175271</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8820013055627827</v>
+        <v>0.883422522923855</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>60279</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>49691</v>
+        <v>49609</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72399</v>
+        <v>71899</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1943227341230517</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1601902468614113</v>
+        <v>0.1599278567492062</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2333976200498123</v>
+        <v>0.2317843759187319</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>262</v>
@@ -8004,19 +8004,19 @@
         <v>121802</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>109548</v>
+        <v>110264</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>135463</v>
+        <v>136160</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2628382657629175</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2363959470146878</v>
+        <v>0.2379402242968357</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2923176288475541</v>
+        <v>0.2938226788369988</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>362</v>
@@ -8025,19 +8025,19 @@
         <v>182080</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>165418</v>
+        <v>164190</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>200484</v>
+        <v>200201</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2353651757331823</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2138260697921589</v>
+        <v>0.2122389106419838</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2591539574224656</v>
+        <v>0.2587889135396367</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>249919</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>237799</v>
+        <v>238299</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>260507</v>
+        <v>260589</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8056772658769482</v>
+        <v>0.8056772658769481</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7666023799501877</v>
+        <v>0.7682156240812681</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8398097531385886</v>
+        <v>0.8400721432507936</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>617</v>
@@ -8075,19 +8075,19 @@
         <v>341608</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>327947</v>
+        <v>327250</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>353862</v>
+        <v>353146</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7371617342370824</v>
+        <v>0.7371617342370825</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.707682371152446</v>
+        <v>0.7061773211630009</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7636040529853124</v>
+        <v>0.7620597757031643</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>975</v>
@@ -8096,19 +8096,19 @@
         <v>591528</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>573124</v>
+        <v>573407</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>608190</v>
+        <v>609418</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7646348242668176</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7408460425775346</v>
+        <v>0.7412110864603633</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7861739302078415</v>
+        <v>0.787761089358016</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>220373</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>196501</v>
+        <v>196367</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>248836</v>
+        <v>248620</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06239737427436211</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05563812536198146</v>
+        <v>0.05560020018748175</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07045631766228219</v>
+        <v>0.07039514376320433</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>597</v>
@@ -8221,19 +8221,19 @@
         <v>312720</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>286777</v>
+        <v>288354</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>338280</v>
+        <v>339168</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.08377960606340872</v>
+        <v>0.08377960606340873</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07682931801883078</v>
+        <v>0.0772519380729757</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09062743622736577</v>
+        <v>0.09086544813709552</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>890</v>
@@ -8242,19 +8242,19 @@
         <v>533093</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>496886</v>
+        <v>494197</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>568685</v>
+        <v>568533</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0733841125412646</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06839998696588194</v>
+        <v>0.06802977430701894</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07828365837467685</v>
+        <v>0.07826262670632074</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3311402</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3282939</v>
+        <v>3283155</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3335274</v>
+        <v>3335408</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9376026257256379</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9295436823377178</v>
+        <v>0.9296048562367957</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9443618746380186</v>
+        <v>0.9443997998125182</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4763</v>
@@ -8292,19 +8292,19 @@
         <v>3419925</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3394365</v>
+        <v>3393477</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3445868</v>
+        <v>3444291</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9162203939365912</v>
+        <v>0.9162203939365913</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9093725637726342</v>
+        <v>0.9091345518629047</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9231706819811692</v>
+        <v>0.9227480619270243</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7845</v>
@@ -8313,19 +8313,19 @@
         <v>6731326</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6695734</v>
+        <v>6695886</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6767533</v>
+        <v>6770222</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9266158874587354</v>
+        <v>0.9266158874587355</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9217163416253229</v>
+        <v>0.9217373732936794</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9316000130341179</v>
+        <v>0.931970225692981</v>
       </c>
     </row>
     <row r="27">
